--- a/products/fixtures/XK20.xlsx
+++ b/products/fixtures/XK20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djang\Documents\Soccersystems\products\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7978B-D253-4313-B8E0-47319212049E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6303417-DE02-4631-847E-7B7B03578E4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,132 +55,6 @@
     <t>articles/no_image.svg</t>
   </si>
   <si>
-    <t>Nr. 0 (zwart)</t>
-  </si>
-  <si>
-    <t>Nr. 1 (zwart)</t>
-  </si>
-  <si>
-    <t>Nr. 2 (zwart)</t>
-  </si>
-  <si>
-    <t>Nr. 3 (zwart)</t>
-  </si>
-  <si>
-    <t>Nr. 4 (zwart)</t>
-  </si>
-  <si>
-    <t>Nr. 5 (zwart)</t>
-  </si>
-  <si>
-    <t>Nr. 6 (zwart)</t>
-  </si>
-  <si>
-    <t>Nr. 7 (zwart)</t>
-  </si>
-  <si>
-    <t>Nr. 8 (zwart)</t>
-  </si>
-  <si>
-    <t>Nr. 9 (zwart)</t>
-  </si>
-  <si>
-    <t>Naamblok SCHERPEN (zwart)</t>
-  </si>
-  <si>
-    <t>Naamblok KOTARSKI (zwart)</t>
-  </si>
-  <si>
-    <t>Naamblok STEKELENBURG (zwart)</t>
-  </si>
-  <si>
-    <t>Naamblok ONANA (zwart)</t>
-  </si>
-  <si>
-    <t>Letter A (zwart)</t>
-  </si>
-  <si>
-    <t>Letter B (zwart)</t>
-  </si>
-  <si>
-    <t>Letter C (zwart)</t>
-  </si>
-  <si>
-    <t>Letter D (zwart)</t>
-  </si>
-  <si>
-    <t>Letter E (zwart)</t>
-  </si>
-  <si>
-    <t>Letter F (zwart)</t>
-  </si>
-  <si>
-    <t>Letter G (zwart)</t>
-  </si>
-  <si>
-    <t>Letter H (zwart)</t>
-  </si>
-  <si>
-    <t>Letter I (zwart)</t>
-  </si>
-  <si>
-    <t>Letter J (zwart)</t>
-  </si>
-  <si>
-    <t>Letter K (zwart)</t>
-  </si>
-  <si>
-    <t>Letter L (zwart)</t>
-  </si>
-  <si>
-    <t>Letter M (zwart)</t>
-  </si>
-  <si>
-    <t>Letter N (zwart)</t>
-  </si>
-  <si>
-    <t>Letter O (zwart)</t>
-  </si>
-  <si>
-    <t>Letter P (zwart)</t>
-  </si>
-  <si>
-    <t>Letter Q (zwart)</t>
-  </si>
-  <si>
-    <t>Letter R (zwart)</t>
-  </si>
-  <si>
-    <t>Letter S (zwart)</t>
-  </si>
-  <si>
-    <t>Letter T (zwart)</t>
-  </si>
-  <si>
-    <t>Letter U (zwart)</t>
-  </si>
-  <si>
-    <t>Letter V (zwart)</t>
-  </si>
-  <si>
-    <t>Letter W (zwart)</t>
-  </si>
-  <si>
-    <t>Letter X (zwart)</t>
-  </si>
-  <si>
-    <t>Letter Y (zwart)</t>
-  </si>
-  <si>
-    <t>Letter Z (zwart)</t>
-  </si>
-  <si>
-    <t>Letter Ö (zwart)</t>
-  </si>
-  <si>
-    <t>Leestekens (zwart)</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -398,6 +272,132 @@
   </si>
   <si>
     <t>02449854</t>
+  </si>
+  <si>
+    <t>Naamblok SCHERPEN</t>
+  </si>
+  <si>
+    <t>Naamblok KOTARSKI</t>
+  </si>
+  <si>
+    <t>Naamblok STEKELENBURG</t>
+  </si>
+  <si>
+    <t>Naamblok ONANA</t>
+  </si>
+  <si>
+    <t>Letter A</t>
+  </si>
+  <si>
+    <t>Nr. 0</t>
+  </si>
+  <si>
+    <t>Nr. 1</t>
+  </si>
+  <si>
+    <t>Nr. 2</t>
+  </si>
+  <si>
+    <t>Nr. 3</t>
+  </si>
+  <si>
+    <t>Nr. 4</t>
+  </si>
+  <si>
+    <t>Nr. 5</t>
+  </si>
+  <si>
+    <t>Nr. 6</t>
+  </si>
+  <si>
+    <t>Nr. 7</t>
+  </si>
+  <si>
+    <t>Nr. 8</t>
+  </si>
+  <si>
+    <t>Nr. 9</t>
+  </si>
+  <si>
+    <t>Letter B</t>
+  </si>
+  <si>
+    <t>Letter C</t>
+  </si>
+  <si>
+    <t>Letter D</t>
+  </si>
+  <si>
+    <t>Letter E</t>
+  </si>
+  <si>
+    <t>Letter F</t>
+  </si>
+  <si>
+    <t>Letter G</t>
+  </si>
+  <si>
+    <t>Letter H</t>
+  </si>
+  <si>
+    <t>Letter I</t>
+  </si>
+  <si>
+    <t>Letter J</t>
+  </si>
+  <si>
+    <t>Letter K</t>
+  </si>
+  <si>
+    <t>Letter L</t>
+  </si>
+  <si>
+    <t>Letter M</t>
+  </si>
+  <si>
+    <t>Letter N</t>
+  </si>
+  <si>
+    <t>Letter O</t>
+  </si>
+  <si>
+    <t>Letter P</t>
+  </si>
+  <si>
+    <t>Letter Q</t>
+  </si>
+  <si>
+    <t>Letter R</t>
+  </si>
+  <si>
+    <t>Letter S</t>
+  </si>
+  <si>
+    <t>Letter T</t>
+  </si>
+  <si>
+    <t>Letter U</t>
+  </si>
+  <si>
+    <t>Letter V</t>
+  </si>
+  <si>
+    <t>Letter W</t>
+  </si>
+  <si>
+    <t>Letter X</t>
+  </si>
+  <si>
+    <t>Letter Y</t>
+  </si>
+  <si>
+    <t>Letter Z</t>
+  </si>
+  <si>
+    <t>Letter Ö</t>
+  </si>
+  <si>
+    <t>Leestekens</t>
   </si>
 </sst>
 </file>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,10 +824,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -836,10 +836,10 @@
         <v>83768275</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="G2" s="6">
         <v>2.1</v>
@@ -854,10 +854,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -866,10 +866,10 @@
         <v>64655582</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G3" s="6">
         <v>2.1</v>
@@ -883,10 +883,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -895,10 +895,10 @@
         <v>43540074</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6">
         <v>2.1</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>41247881</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6">
         <v>2.1</v>
@@ -941,22 +941,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G6" s="6">
         <v>2.1</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -982,10 +982,10 @@
         <v>84723865</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G7" s="6">
         <v>2.1</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>73755961</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G8" s="6">
         <v>2.1</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1040,10 +1040,10 @@
         <v>79857607</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G9" s="6">
         <v>2.1</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1069,10 +1069,10 @@
         <v>55318247</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G10" s="6">
         <v>2.1</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1098,10 +1098,10 @@
         <v>10371821</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G11" s="6">
         <v>2.1</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1127,10 +1127,10 @@
         <v>28196593</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G12" s="6">
         <v>1.65</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1156,10 +1156,10 @@
         <v>59449704</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="G13" s="6">
         <v>1.65</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1185,10 +1185,10 @@
         <v>63082110</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G14" s="6">
         <v>1.65</v>
@@ -1202,22 +1202,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G15" s="6">
         <v>1.65</v>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1243,10 +1243,10 @@
         <v>38653195</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G16" s="6">
         <v>1.65</v>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1272,10 +1272,10 @@
         <v>92349643</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G17" s="6">
         <v>1.65</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1301,10 +1301,10 @@
         <v>86552081</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G18" s="6">
         <v>1.65</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1330,10 +1330,10 @@
         <v>59068229</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G19" s="6">
         <v>1.65</v>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1359,10 +1359,10 @@
         <v>26946209</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G20" s="6">
         <v>1.65</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1388,10 +1388,10 @@
         <v>35785688</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G21" s="6">
         <v>1.65</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1417,10 +1417,10 @@
         <v>47127780</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G22" s="6">
         <v>1</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1446,10 +1446,10 @@
         <v>97393114</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G23" s="6">
         <v>1</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1475,10 +1475,10 @@
         <v>30877233</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="G24" s="6">
         <v>1</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1504,10 +1504,10 @@
         <v>93144475</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G25" s="6">
         <v>1</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1533,10 +1533,10 @@
         <v>75634009</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G26" s="6">
         <v>1</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1562,10 +1562,10 @@
         <v>21345694</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G27" s="6">
         <v>1</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -1591,10 +1591,10 @@
         <v>31213776</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G28" s="6">
         <v>1</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1620,10 +1620,10 @@
         <v>81831151</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G29" s="6">
         <v>1</v>
@@ -1637,10 +1637,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1649,10 +1649,10 @@
         <v>18147382</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G30" s="6">
         <v>1</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -1678,10 +1678,10 @@
         <v>28057729</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G31" s="6">
         <v>1</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1707,10 +1707,10 @@
         <v>84442554</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G32" s="6">
         <v>1.95</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1736,10 +1736,10 @@
         <v>69005665</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G33" s="6">
         <v>1.95</v>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1765,10 +1765,10 @@
         <v>79967922</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G34" s="6">
         <v>1.95</v>
@@ -1782,10 +1782,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1794,10 +1794,10 @@
         <v>27407500</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G35" s="6">
         <v>1.95</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1823,10 +1823,10 @@
         <v>33817428</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G36" s="6">
         <v>0.12</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1852,10 +1852,10 @@
         <v>53865322</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G37" s="6">
         <v>0.12</v>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1881,10 +1881,10 @@
         <v>59424156</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G38" s="6">
         <v>0.12</v>
@@ -1898,10 +1898,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1910,10 +1910,10 @@
         <v>30276150</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G39" s="6">
         <v>0.12</v>
@@ -1927,10 +1927,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -1939,10 +1939,10 @@
         <v>98117727</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G40" s="6">
         <v>0.12</v>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -1968,10 +1968,10 @@
         <v>28759256</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G41" s="6">
         <v>0.12</v>
@@ -1985,10 +1985,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1997,10 +1997,10 @@
         <v>93348763</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G42" s="6">
         <v>0.12</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -2026,10 +2026,10 @@
         <v>30448702</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G43" s="6">
         <v>0.12</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -2055,10 +2055,10 @@
         <v>11265038</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G44" s="6">
         <v>0.12</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -2084,10 +2084,10 @@
         <v>13505789</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G45" s="6">
         <v>0.12</v>
@@ -2101,10 +2101,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -2113,10 +2113,10 @@
         <v>86979929</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G46" s="6">
         <v>0.12</v>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2142,10 +2142,10 @@
         <v>12731469</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G47" s="6">
         <v>0.12</v>
@@ -2159,22 +2159,22 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G48" s="6">
         <v>0.12</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -2200,10 +2200,10 @@
         <v>92148147</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G49" s="6">
         <v>0.12</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -2229,10 +2229,10 @@
         <v>41531334</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G50" s="6">
         <v>0.12</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -2258,10 +2258,10 @@
         <v>83561668</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G51" s="6">
         <v>0.12</v>
@@ -2275,22 +2275,22 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G52" s="6">
         <v>0.12</v>
@@ -2304,10 +2304,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -2316,10 +2316,10 @@
         <v>99129289</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G53" s="6">
         <v>0.12</v>
@@ -2333,10 +2333,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -2345,10 +2345,10 @@
         <v>82845484</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G54" s="6">
         <v>0.12</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -2374,10 +2374,10 @@
         <v>30959460</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G55" s="6">
         <v>0.12</v>
@@ -2391,22 +2391,22 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G56" s="6">
         <v>0.12</v>
@@ -2420,22 +2420,22 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G57" s="6">
         <v>0.12</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -2461,10 +2461,10 @@
         <v>69097314</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G58" s="6">
         <v>0.12</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -2490,10 +2490,10 @@
         <v>53956250</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G59" s="6">
         <v>0.12</v>
@@ -2507,10 +2507,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -2519,10 +2519,10 @@
         <v>21582852</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G60" s="6">
         <v>0.12</v>
@@ -2536,10 +2536,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -2548,10 +2548,10 @@
         <v>97217575</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G61" s="6">
         <v>0.12</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -2577,10 +2577,10 @@
         <v>28820218</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G62" s="6">
         <v>0.12</v>
@@ -2594,10 +2594,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -2606,10 +2606,10 @@
         <v>81606261</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G63" s="6">
         <v>0.12</v>
